--- a/2019春软工嵌入式2班分组名单.xlsx
+++ b/2019春软工嵌入式2班分组名单.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13307\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Study\北京航空航天大学\助教\PPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74D82C7-BF35-41C8-B681-FCC7998F8195}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD475D3-9734-4158-8E93-60A15B466D09}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1020" yWindow="1920" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>团队名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,10 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胡峰 16061157 Panadabuaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>康洪基 16061169 Shio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,6 +173,14 @@
   <si>
     <t>2019春软件工程嵌入式2班分组名单</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳韵非 16061139 yyfydtyxy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡峰 16061157 Pandabuaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -303,16 +307,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -622,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -640,7 +644,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="22.5">
       <c r="A1" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -651,29 +655,29 @@
       <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:27" ht="16.5">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>27</v>
+      <c r="H2" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -696,28 +700,28 @@
       <c r="AA2" s="2"/>
     </row>
     <row r="3" spans="1:27" ht="16.5">
-      <c r="A3" s="6">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="10">
         <v>16061094</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="8"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -737,16 +741,16 @@
       <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="1:27" ht="16.5">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="8"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4"/>
       <c r="K4" s="2"/>
@@ -768,16 +772,16 @@
       <c r="AA4" s="2"/>
     </row>
     <row r="5" spans="1:27" ht="16.5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="8"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="11"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="3"/>
       <c r="J5" s="4"/>
       <c r="K5" s="2"/>
@@ -799,16 +803,16 @@
       <c r="AA5" s="2"/>
     </row>
     <row r="6" spans="1:27" ht="16.5">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="8"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="3"/>
       <c r="J6" s="4"/>
       <c r="K6" s="2"/>
@@ -830,28 +834,28 @@
       <c r="AA6" s="2"/>
     </row>
     <row r="7" spans="1:27" ht="16.5">
-      <c r="A7" s="6">
+      <c r="A7" s="10">
         <v>2</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="10">
         <v>16061176</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="8"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -872,16 +876,16 @@
       <c r="AA7" s="2"/>
     </row>
     <row r="8" spans="1:27" ht="16.5">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="8"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="3"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -903,16 +907,16 @@
       <c r="AA8" s="2"/>
     </row>
     <row r="9" spans="1:27" ht="16.5">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="8"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="3"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -934,14 +938,14 @@
       <c r="AA9" s="2"/>
     </row>
     <row r="10" spans="1:27" ht="16.5">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="8"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="11"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="3"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -963,28 +967,28 @@
       <c r="AA10" s="2"/>
     </row>
     <row r="11" spans="1:27" ht="16.5">
-      <c r="A11" s="6">
+      <c r="A11" s="10">
         <v>3</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="6">
-        <v>16061096</v>
+      <c r="E11" s="10">
+        <v>16061095</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="8"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1005,16 +1009,16 @@
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27" ht="16.5">
-      <c r="A12" s="6"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="8"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1036,16 +1040,16 @@
       <c r="AA12" s="2"/>
     </row>
     <row r="13" spans="1:27" ht="16.5">
-      <c r="A13" s="6"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="8"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
-      <c r="H13" s="9"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1067,14 +1071,16 @@
       <c r="AA13" s="2"/>
     </row>
     <row r="14" spans="1:27" ht="16.5">
-      <c r="A14" s="6"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="6"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -6694,6 +6700,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="B11:B14"/>
@@ -6707,12 +6719,6 @@
     <mergeCell ref="D7:D10"/>
     <mergeCell ref="E7:E10"/>
     <mergeCell ref="F7:F10"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2019春软工嵌入式2班分组名单.xlsx
+++ b/2019春软工嵌入式2班分组名单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Study\北京航空航天大学\助教\PPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD475D3-9734-4158-8E93-60A15B466D09}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1BF5A3-98F5-41CA-AD4E-CF6A5F42D3E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1020" yWindow="1920" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>团队名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,10 @@
   <si>
     <t>胡峰 16061157 Pandabuaa</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘熙尧 16231263 16231263</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -626,7 +630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -944,7 +948,9 @@
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="H10" s="9"/>
       <c r="I10" s="3"/>
       <c r="J10" s="2"/>
@@ -6700,11 +6706,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
     <mergeCell ref="F3:F6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A11:A14"/>
@@ -6719,6 +6720,11 @@
     <mergeCell ref="D7:D10"/>
     <mergeCell ref="E7:E10"/>
     <mergeCell ref="F7:F10"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
